--- a/Roster and Azure Credentials.xlsx
+++ b/Roster and Azure Credentials.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DevelopIntelligence\Azure Training\Azure Admin Courseware\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DevelopIntelligence\Azure Training\Azure Admin Courseware\MTBankAdmin\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC44C7AE-0696-4D2F-AECF-C3A7016E189C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E9645A1-7066-42A8-8D11-2530F48773AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="22932" yWindow="-24" windowWidth="23256" windowHeight="12456" xr2:uid="{935D7AA8-7106-4DCE-9E6A-43F594F700A1}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="74">
   <si>
     <t>First and Last Name</t>
   </si>
@@ -179,123 +179,63 @@
     <t>user01@mtbanklab.onmicrosoft.com</t>
   </si>
   <si>
-    <t>Password@123</t>
-  </si>
-  <si>
     <t>user02@mtbanklab.onmicrosoft.com</t>
   </si>
   <si>
-    <t>Password@124</t>
-  </si>
-  <si>
     <t>user03@mtbanklab.onmicrosoft.com</t>
   </si>
   <si>
-    <t>Password@125</t>
-  </si>
-  <si>
     <t>user04@mtbanklab.onmicrosoft.com</t>
   </si>
   <si>
-    <t>Password@126</t>
-  </si>
-  <si>
     <t>user05@mtbanklab.onmicrosoft.com</t>
   </si>
   <si>
-    <t>Password@127</t>
-  </si>
-  <si>
     <t>user06@mtbanklab.onmicrosoft.com</t>
   </si>
   <si>
-    <t>Password@128</t>
-  </si>
-  <si>
     <t>user07@mtbanklab.onmicrosoft.com</t>
   </si>
   <si>
-    <t>Password@129</t>
-  </si>
-  <si>
     <t>user08@mtbanklab.onmicrosoft.com</t>
   </si>
   <si>
-    <t>Password@130</t>
-  </si>
-  <si>
     <t>user09@mtbanklab.onmicrosoft.com</t>
   </si>
   <si>
-    <t>Password@131</t>
-  </si>
-  <si>
     <t>user10@mtbanklab.onmicrosoft.com</t>
   </si>
   <si>
-    <t>Password@132</t>
-  </si>
-  <si>
     <t>user11@mtbanklab.onmicrosoft.com</t>
   </si>
   <si>
-    <t>Password@133</t>
-  </si>
-  <si>
     <t>user12@mtbanklab.onmicrosoft.com</t>
   </si>
   <si>
-    <t>Password@134</t>
-  </si>
-  <si>
     <t>user13@mtbanklab.onmicrosoft.com</t>
   </si>
   <si>
-    <t>Password@135</t>
-  </si>
-  <si>
     <t>user14@mtbanklab.onmicrosoft.com</t>
   </si>
   <si>
-    <t>Password@136</t>
-  </si>
-  <si>
     <t>user15@mtbanklab.onmicrosoft.com</t>
   </si>
   <si>
-    <t>Password@137</t>
-  </si>
-  <si>
     <t>user16@mtbanklab.onmicrosoft.com</t>
   </si>
   <si>
-    <t>Password@138</t>
-  </si>
-  <si>
     <t>user17@mtbanklab.onmicrosoft.com</t>
   </si>
   <si>
-    <t>Password@139</t>
-  </si>
-  <si>
     <t>user18@mtbanklab.onmicrosoft.com</t>
   </si>
   <si>
-    <t>Password@140</t>
-  </si>
-  <si>
     <t>user19@mtbanklab.onmicrosoft.com</t>
   </si>
   <si>
-    <t>Password@141</t>
-  </si>
-  <si>
     <t>user20@mtbanklab.onmicrosoft.com</t>
   </si>
   <si>
-    <t>Password@142</t>
-  </si>
-  <si>
     <t>Username</t>
   </si>
   <si>
@@ -308,17 +248,23 @@
     <t>user22@mtbanklab.onmicrosoft.com</t>
   </si>
   <si>
-    <t>Password@143</t>
-  </si>
-  <si>
-    <t>Password@144</t>
+    <t>tjenkins_contractor@mtb.com</t>
+  </si>
+  <si>
+    <t>Jenkins, Terry</t>
+  </si>
+  <si>
+    <t>Zadu0229</t>
+  </si>
+  <si>
+    <t>Dropped</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -346,6 +292,19 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF1D1C1D"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="5">
@@ -415,7 +374,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
@@ -425,6 +384,10 @@
     <xf numFmtId="49" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -740,10 +703,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1DEE46F-942F-4F28-813C-98F5D2CD0A10}">
-  <dimension ref="A1:D23"/>
+  <dimension ref="A1:D24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -751,7 +714,7 @@
     <col min="1" max="1" width="20.77734375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="23.109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="32.44140625" customWidth="1"/>
-    <col min="4" max="4" width="24.109375" customWidth="1"/>
+    <col min="4" max="4" width="17" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
@@ -762,10 +725,10 @@
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>86</v>
+        <v>66</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>87</v>
+        <v>67</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
@@ -778,9 +741,7 @@
       <c r="C2" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="D2" s="7" t="s">
-        <v>47</v>
-      </c>
+      <c r="D2" s="7"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
@@ -790,11 +751,9 @@
         <v>5</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>49</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="D3" s="7"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
@@ -804,11 +763,9 @@
         <v>45</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>51</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="D4" s="7"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
@@ -818,11 +775,9 @@
         <v>7</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>53</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="D5" s="7"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
@@ -832,24 +787,22 @@
         <v>9</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" ht="1.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>57</v>
+      <c r="C7" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
@@ -860,11 +813,9 @@
         <v>13</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>59</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="D8" s="7"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
@@ -874,11 +825,9 @@
         <v>15</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>61</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="D9" s="7"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
@@ -888,11 +837,9 @@
         <v>17</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>63</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="D10" s="7"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
@@ -902,11 +849,9 @@
         <v>19</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>65</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="D11" s="7"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
@@ -916,11 +861,9 @@
         <v>21</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="D12" s="7" t="s">
-        <v>67</v>
-      </c>
+        <v>56</v>
+      </c>
+      <c r="D12" s="7"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
@@ -930,11 +873,9 @@
         <v>23</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>69</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="D13" s="7"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
@@ -944,11 +885,9 @@
         <v>25</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>71</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="D14" s="7"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
@@ -958,11 +897,9 @@
         <v>27</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="D15" s="8" t="s">
-        <v>73</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="D15" s="8"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
@@ -972,11 +909,9 @@
         <v>29</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="D16" s="7" t="s">
-        <v>75</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="D16" s="7"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
@@ -986,11 +921,9 @@
         <v>31</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="D17" s="7" t="s">
-        <v>77</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="D17" s="7"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
@@ -1000,11 +933,9 @@
         <v>33</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="D18" s="7" t="s">
-        <v>79</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="D18" s="7"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
@@ -1014,11 +945,9 @@
         <v>35</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="D19" s="7" t="s">
-        <v>81</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="D19" s="7"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
@@ -1028,11 +957,9 @@
         <v>37</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="D20" s="7" t="s">
-        <v>83</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="D20" s="7"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
@@ -1042,11 +969,9 @@
         <v>39</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="D21" s="7" t="s">
-        <v>85</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="D21" s="7"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
@@ -1056,11 +981,9 @@
         <v>41</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="D22" s="7" t="s">
-        <v>90</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="D22" s="7"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
@@ -1070,10 +993,22 @@
         <v>43</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="D23" s="7" t="s">
-        <v>91</v>
+        <v>69</v>
+      </c>
+      <c r="D23" s="7"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="C24" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="D24" t="s">
+        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -1082,7 +1017,7 @@
     <hyperlink ref="B4" r:id="rId1" display="mailto:bbartko@mtb.com" xr:uid="{0FAB96D8-7D44-4AD8-9618-7B40E237E012}"/>
     <hyperlink ref="C22" r:id="rId2" xr:uid="{A19F7E8B-3FD4-40A7-8619-26EDA9599EDB}"/>
     <hyperlink ref="C23" r:id="rId3" xr:uid="{3DE09A7A-D233-4CA5-B1DA-84B362A70EA5}"/>
-    <hyperlink ref="D15" r:id="rId4" xr:uid="{15A86264-CCB4-4132-AC7C-1621CE3BDB27}"/>
+    <hyperlink ref="B24" r:id="rId4" display="mailto:tjenkins_contractor@mtb.com" xr:uid="{519000E3-CE1F-41CF-839C-D4F3565D2801}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId5"/>

--- a/Roster and Azure Credentials.xlsx
+++ b/Roster and Azure Credentials.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DevelopIntelligence\Azure Training\Azure Admin Courseware\MTBankAdmin\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E9645A1-7066-42A8-8D11-2530F48773AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1882E25-8C36-4CF8-8649-1988137BB940}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="22932" yWindow="-24" windowWidth="23256" windowHeight="12456" xr2:uid="{935D7AA8-7106-4DCE-9E6A-43F594F700A1}"/>
   </bookViews>
@@ -706,7 +706,7 @@
   <dimension ref="A1:D24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="D24" sqref="C24:D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -791,7 +791,7 @@
       </c>
       <c r="D6" s="7"/>
     </row>
-    <row r="7" spans="1:4" ht="1.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="9" t="s">
         <v>10</v>
       </c>
